--- a/ontogeny/SJCStockoceros.xlsx
+++ b/ontogeny/SJCStockoceros.xlsx
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Ln(circumf)</t>
+  </si>
+  <si>
+    <t>107	26							3.258096538	4.672828834
+89	22							3.091042453	4.48863637
+78	20							2.995732274	4.356708827</t>
+  </si>
+  <si>
+    <t>107
+89
+78</t>
+  </si>
+  <si>
+    <t>107	26
+89	22
+78	20</t>
   </si>
 </sst>
 </file>
@@ -5411,7 +5426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5430,313 +5445,289 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>160</v>
-      </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
-      <c r="I2" s="0">
-        <f>LN(B2)</f>
-        <v>3.95124371858143</v>
-      </c>
-      <c r="J2" s="0">
-        <f>LN(A2)</f>
-        <v>5.07517381523383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>158</v>
-      </c>
-      <c r="B3">
-        <v>56</v>
-      </c>
-      <c r="I3" s="0">
-        <f>LN(B3)</f>
-        <v>4.02535169073515</v>
-      </c>
-      <c r="J3" s="0">
-        <f>LN(A3)</f>
-        <v>5.06259503302697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>167</v>
-      </c>
-      <c r="B4">
-        <v>52</v>
-      </c>
-      <c r="I4" s="0">
-        <f>LN(B4)</f>
-        <v>3.95124371858143</v>
-      </c>
-      <c r="J4" s="0">
-        <f>LN(A4)</f>
-        <v>5.11799381241676</v>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>89</v>
+      </c>
+      <c r="B3" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>78</v>
+      </c>
+      <c r="B4" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I5" s="0">
         <f>LN(B5)</f>
-        <v>4.02535169073515</v>
+        <v>3.95124371858143</v>
       </c>
       <c r="J5" s="0">
         <f>LN(A5)</f>
-        <v>5.0998664278242</v>
+        <v>5.07517381523383</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0">
         <f>LN(B6)</f>
-        <v>4.0943445622221</v>
+        <v>4.02535169073515</v>
       </c>
       <c r="J6" s="0">
         <f>LN(A6)</f>
-        <v>5.23110861685459</v>
+        <v>5.06259503302697</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I7" s="0">
         <f>LN(B7)</f>
-        <v>4.0943445622221</v>
+        <v>3.95124371858143</v>
       </c>
       <c r="J7" s="0">
         <f>LN(A7)</f>
-        <v>5.14166355650266</v>
+        <v>5.11799381241676</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="0">
         <f>LN(B8)</f>
-        <v>4.00733318523247</v>
+        <v>4.02535169073515</v>
       </c>
       <c r="J8" s="0">
         <f>LN(A8)</f>
-        <v>5.22035582507833</v>
+        <v>5.0998664278242</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="0">
         <f>LN(B9)</f>
-        <v>4.12713438504509</v>
+        <v>4.0943445622221</v>
       </c>
       <c r="J9" s="0">
         <f>LN(A9)</f>
-        <v>5.27299955856375</v>
+        <v>5.23110861685459</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" s="0">
         <f>LN(B10)</f>
-        <v>4.06044301054642</v>
+        <v>4.0943445622221</v>
       </c>
       <c r="J10" s="0">
         <f>LN(A10)</f>
-        <v>5.24702407216049</v>
+        <v>5.14166355650266</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0">
         <f>LN(B11)</f>
-        <v>3.97029191355212</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J11" s="0">
         <f>LN(A11)</f>
-        <v>5.12396397940326</v>
+        <v>5.22035582507833</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I12" s="0">
         <f>LN(B12)</f>
-        <v>4.04305126783455</v>
+        <v>4.12713438504509</v>
       </c>
       <c r="J12" s="0">
         <f>LN(A12)</f>
-        <v>5.28320372873799</v>
+        <v>5.27299955856375</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="0">
         <f>LN(B13)</f>
-        <v>4.0943445622221</v>
+        <v>4.06044301054642</v>
       </c>
       <c r="J13" s="0">
         <f>LN(A13)</f>
-        <v>5.25749537202778</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="0">
         <f>LN(B14)</f>
-        <v>3.95124371858143</v>
+        <v>3.97029191355212</v>
       </c>
       <c r="J14" s="0">
         <f>LN(A14)</f>
-        <v>5.16478597392351</v>
+        <v>5.12396397940326</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I15" s="0">
         <f>LN(B15)</f>
-        <v>3.93182563272433</v>
+        <v>4.04305126783455</v>
       </c>
       <c r="J15" s="0">
         <f>LN(A15)</f>
-        <v>5.14749447681345</v>
+        <v>5.28320372873799</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" s="0">
         <f>LN(B16)</f>
-        <v>4.06044301054642</v>
+        <v>4.0943445622221</v>
       </c>
       <c r="J16" s="0">
         <f>LN(A16)</f>
-        <v>5.16478597392351</v>
+        <v>5.25749537202778</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="0">
         <f>LN(B17)</f>
-        <v>3.93182563272433</v>
+        <v>3.95124371858143</v>
       </c>
       <c r="J17" s="0">
         <f>LN(A17)</f>
-        <v>5.21493575760899</v>
+        <v>5.16478597392351</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I18" s="0">
         <f>LN(B18)</f>
-        <v>4.06044301054642</v>
+        <v>3.93182563272433</v>
       </c>
       <c r="J18" s="0">
         <f>LN(A18)</f>
-        <v>5.19295685089021</v>
+        <v>5.14749447681345</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="0">
         <f>LN(B19)</f>
-        <v>4.02535169073515</v>
+        <v>4.06044301054642</v>
       </c>
       <c r="J19" s="0">
         <f>LN(A19)</f>
-        <v>5.15905529921453</v>
+        <v>5.16478597392351</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I20" s="0">
         <f>LN(B20)</f>
-        <v>4.04305126783455</v>
+        <v>3.93182563272433</v>
       </c>
       <c r="J20" s="0">
         <f>LN(A20)</f>
-        <v>5.2257466737132</v>
+        <v>5.21493575760899</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B21">
         <v>58</v>
@@ -5747,76 +5738,76 @@
       </c>
       <c r="J21" s="0">
         <f>LN(A21)</f>
-        <v>5.17048399503815</v>
+        <v>5.19295685089021</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I22" s="0">
         <f>LN(B22)</f>
-        <v>4.00733318523247</v>
+        <v>4.02535169073515</v>
       </c>
       <c r="J22" s="0">
         <f>LN(A22)</f>
-        <v>5.19849703126583</v>
+        <v>5.15905529921453</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B23">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I23" s="0">
         <f>LN(B23)</f>
-        <v>3.97029191355212</v>
+        <v>4.04305126783455</v>
       </c>
       <c r="J23" s="0">
         <f>LN(A23)</f>
-        <v>5.15329159449778</v>
+        <v>5.2257466737132</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B24">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I24" s="0">
         <f>LN(B24)</f>
-        <v>4.00733318523247</v>
+        <v>4.06044301054642</v>
       </c>
       <c r="J24" s="0">
         <f>LN(A24)</f>
-        <v>5.23644196282995</v>
+        <v>5.17048399503815</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I25" s="0">
         <f>LN(B25)</f>
-        <v>4.07753744390572</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J25" s="0">
         <f>LN(A25)</f>
-        <v>5.19295685089021</v>
+        <v>5.19849703126583</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26">
         <v>53</v>
@@ -5827,295 +5818,283 @@
       </c>
       <c r="J26" s="0">
         <f>LN(A26)</f>
-        <v>5.17048399503815</v>
+        <v>5.15329159449778</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I27" s="0">
         <f>LN(B27)</f>
-        <v>4.07753744390572</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J27" s="0">
         <f>LN(A27)</f>
-        <v>5.14749447681345</v>
+        <v>5.23644196282995</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I28" s="0">
         <f>LN(B28)</f>
-        <v>4.00733318523247</v>
+        <v>4.07753744390572</v>
       </c>
       <c r="J28" s="0">
         <f>LN(A28)</f>
-        <v>5.17614973257383</v>
+        <v>5.19295685089021</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I29" s="0">
         <f>LN(B29)</f>
-        <v>4.0943445622221</v>
+        <v>3.97029191355212</v>
       </c>
       <c r="J29" s="0">
         <f>LN(A29)</f>
-        <v>5.18738580584075</v>
+        <v>5.17048399503815</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" s="0">
         <f>LN(B30)</f>
-        <v>4.06044301054642</v>
+        <v>4.07753744390572</v>
       </c>
       <c r="J30" s="0">
         <f>LN(A30)</f>
-        <v>5.16478597392351</v>
+        <v>5.14749447681345</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B31">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I31" s="0">
         <f>LN(B31)</f>
-        <v>3.98898404656427</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J31" s="0">
         <f>LN(A31)</f>
-        <v>5.15905529921453</v>
+        <v>5.17614973257383</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I32" s="0">
         <f>LN(B32)</f>
-        <v>3.91202300542815</v>
+        <v>4.0943445622221</v>
       </c>
       <c r="J32" s="0">
         <f>LN(A32)</f>
-        <v>5.11799381241676</v>
+        <v>5.18738580584075</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B33">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I33" s="0">
         <f>LN(B33)</f>
-        <v>4.00733318523247</v>
+        <v>4.06044301054642</v>
       </c>
       <c r="J33" s="0">
         <f>LN(A33)</f>
-        <v>5.13579843705026</v>
+        <v>5.16478597392351</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="0">
         <f>LN(B34)</f>
-        <v>4.00733318523247</v>
+        <v>3.98898404656427</v>
       </c>
       <c r="J34" s="0">
         <f>LN(A34)</f>
-        <v>5.17614973257383</v>
+        <v>5.15905529921453</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2">
-        <v>190</v>
-      </c>
-      <c r="B35" s="0">
-        <f>3.14*E35</f>
-        <v>65.0608</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20.72</v>
+      <c r="A35">
+        <v>167</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
       </c>
       <c r="I35" s="0">
         <f>LN(B35)</f>
-        <v>4.17532221731144</v>
+        <v>3.91202300542815</v>
       </c>
       <c r="J35" s="0">
         <f>LN(A35)</f>
-        <v>5.24702407216049</v>
+        <v>5.11799381241676</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="2">
-        <v>185</v>
-      </c>
-      <c r="B36" s="0">
-        <f>3.14*E36</f>
-        <v>56.6456</v>
-      </c>
-      <c r="E36" s="1">
-        <v>18.04</v>
+      <c r="A36">
+        <v>170</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
       </c>
       <c r="I36" s="0">
         <f>LN(B36)</f>
-        <v>4.03681431455464</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J36" s="0">
         <f>LN(A36)</f>
-        <v>5.22035582507833</v>
+        <v>5.13579843705026</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="2">
-        <v>198</v>
-      </c>
-      <c r="B37" s="0">
-        <f>3.14*E37</f>
-        <v>66.4424</v>
-      </c>
-      <c r="E37" s="1">
-        <v>21.16</v>
+      <c r="A37">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
       </c>
       <c r="I37" s="0">
         <f>LN(B37)</f>
-        <v>4.19633540691026</v>
+        <v>4.00733318523247</v>
       </c>
       <c r="J37" s="0">
         <f>LN(A37)</f>
-        <v>5.28826703069454</v>
+        <v>5.17614973257383</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B38" s="0">
         <f>3.14*E38</f>
-        <v>68.6404</v>
+        <v>65.0608</v>
       </c>
       <c r="E38" s="1">
-        <v>21.86</v>
+        <v>20.72</v>
       </c>
       <c r="I38" s="0">
         <f>LN(B38)</f>
-        <v>4.22888128266855</v>
+        <v>4.17532221731144</v>
       </c>
       <c r="J38" s="0">
         <f>LN(A38)</f>
-        <v>5.24174701505964</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B39" s="0">
         <f>3.14*E39</f>
-        <v>60.2252</v>
+        <v>56.6456</v>
       </c>
       <c r="E39" s="1">
-        <v>19.18</v>
+        <v>18.04</v>
       </c>
       <c r="I39" s="0">
         <f>LN(B39)</f>
-        <v>4.09809086937545</v>
+        <v>4.03681431455464</v>
       </c>
       <c r="J39" s="0">
         <f>LN(A39)</f>
-        <v>5.27299955856375</v>
+        <v>5.22035582507833</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2">
-        <v>198.5</v>
+        <v>198</v>
       </c>
       <c r="B40" s="0">
         <f>3.14*E40</f>
-        <v>61.1672</v>
+        <v>66.4424</v>
       </c>
       <c r="E40" s="1">
-        <v>19.48</v>
+        <v>21.16</v>
       </c>
       <c r="I40" s="0">
         <f>LN(B40)</f>
-        <v>4.11361109813455</v>
+        <v>4.19633540691026</v>
       </c>
       <c r="J40" s="0">
         <f>LN(A40)</f>
-        <v>5.29078910012725</v>
+        <v>5.28826703069454</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B41" s="0">
         <f>3.14*E41</f>
-        <v>61.544</v>
+        <v>68.6404</v>
       </c>
       <c r="E41" s="1">
-        <v>19.6</v>
+        <v>21.86</v>
       </c>
       <c r="I41" s="0">
         <f>LN(B41)</f>
-        <v>4.11975236615663</v>
+        <v>4.22888128266855</v>
       </c>
       <c r="J41" s="0">
         <f>LN(A41)</f>
-        <v>5.27811465923052</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B42" s="0">
         <f>3.14*E42</f>
-        <v>65.8458</v>
+        <v>60.2252</v>
       </c>
       <c r="E42" s="1">
-        <v>20.97</v>
+        <v>19.18</v>
       </c>
       <c r="I42" s="0">
         <f>LN(B42)</f>
-        <v>4.18731564483399</v>
+        <v>4.09809086937545</v>
       </c>
       <c r="J42" s="0">
         <f>LN(A42)</f>
-        <v>5.26269018890489</v>
+        <v>5.27299955856375</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6124,14 +6103,14 @@
       </c>
       <c r="B43" s="0">
         <f>3.14*E43</f>
-        <v>61.7324</v>
+        <v>61.1672</v>
       </c>
       <c r="E43" s="1">
-        <v>19.66</v>
+        <v>19.48</v>
       </c>
       <c r="I43" s="0">
         <f>LN(B43)</f>
-        <v>4.12280891463918</v>
+        <v>4.11361109813455</v>
       </c>
       <c r="J43" s="0">
         <f>LN(A43)</f>
@@ -6140,1382 +6119,1382 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B44" s="0">
         <f>3.14*E44</f>
-        <v>60.8846</v>
+        <v>61.544</v>
       </c>
       <c r="E44" s="1">
-        <v>19.39</v>
+        <v>19.6</v>
       </c>
       <c r="I44" s="0">
         <f>LN(B44)</f>
-        <v>4.10898026917472</v>
+        <v>4.11975236615663</v>
       </c>
       <c r="J44" s="0">
         <f>LN(A44)</f>
-        <v>5.26269018890489</v>
+        <v>5.27811465923052</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B45" s="0">
         <f>3.14*E45</f>
-        <v>62.8942</v>
+        <v>65.8458</v>
       </c>
       <c r="E45" s="1">
-        <v>20.03</v>
+        <v>20.97</v>
       </c>
       <c r="I45" s="0">
         <f>LN(B45)</f>
-        <v>4.14145394959789</v>
+        <v>4.18731564483399</v>
       </c>
       <c r="J45" s="0">
         <f>LN(A45)</f>
-        <v>5.24174701505964</v>
+        <v>5.26269018890489</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2">
-        <v>194</v>
+        <v>198.5</v>
       </c>
       <c r="B46" s="0">
         <f>3.14*E46</f>
-        <v>60.6648</v>
+        <v>61.7324</v>
       </c>
       <c r="E46" s="1">
-        <v>19.32</v>
+        <v>19.66</v>
       </c>
       <c r="I46" s="0">
         <f>LN(B46)</f>
-        <v>4.10536362870453</v>
+        <v>4.12280891463918</v>
       </c>
       <c r="J46" s="0">
         <f>LN(A46)</f>
-        <v>5.26785815906333</v>
+        <v>5.29078910012725</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B47" s="0">
         <f>3.14*E47</f>
-        <v>65.2806</v>
+        <v>60.8846</v>
       </c>
       <c r="E47" s="1">
-        <v>20.79</v>
+        <v>19.39</v>
       </c>
       <c r="I47" s="0">
         <f>LN(B47)</f>
-        <v>4.17869490179008</v>
+        <v>4.10898026917472</v>
       </c>
       <c r="J47" s="0">
         <f>LN(A47)</f>
-        <v>5.25227342804663</v>
+        <v>5.26269018890489</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B48" s="0">
         <f>3.14*E48</f>
-        <v>58.404</v>
+        <v>62.8942</v>
       </c>
       <c r="E48" s="1">
-        <v>18.6</v>
+        <v>20.03</v>
       </c>
       <c r="I48" s="0">
         <f>LN(B48)</f>
-        <v>4.06738438063932</v>
+        <v>4.14145394959789</v>
       </c>
       <c r="J48" s="0">
         <f>LN(A48)</f>
-        <v>5.26269018890489</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B49" s="0">
         <f>3.14*E49</f>
-        <v>72.063</v>
+        <v>60.6648</v>
       </c>
       <c r="E49" s="1">
-        <v>22.95</v>
+        <v>19.32</v>
       </c>
       <c r="I49" s="0">
         <f>LN(B49)</f>
-        <v>4.27754073642672</v>
+        <v>4.10536362870453</v>
       </c>
       <c r="J49" s="0">
         <f>LN(A49)</f>
-        <v>5.24702407216049</v>
+        <v>5.26785815906333</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="0">
         <f>3.14*E50</f>
-        <v>65.6888</v>
+        <v>65.2806</v>
       </c>
       <c r="E50" s="1">
-        <v>20.92</v>
+        <v>20.79</v>
       </c>
       <c r="I50" s="0">
         <f>LN(B50)</f>
-        <v>4.18492843911688</v>
+        <v>4.17869490179008</v>
       </c>
       <c r="J50" s="0">
         <f>LN(A50)</f>
-        <v>5.25749537202778</v>
+        <v>5.25227342804663</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B51" s="0">
         <f>3.14*E51</f>
-        <v>60.4764</v>
+        <v>58.404</v>
       </c>
       <c r="E51" s="1">
-        <v>19.26</v>
+        <v>18.6</v>
       </c>
       <c r="I51" s="0">
         <f>LN(B51)</f>
-        <v>4.10225320629014</v>
+        <v>4.06738438063932</v>
       </c>
       <c r="J51" s="0">
         <f>LN(A51)</f>
-        <v>5.25227342804663</v>
+        <v>5.26269018890489</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B52" s="0">
         <f>3.14*E52</f>
-        <v>63.8048</v>
+        <v>72.063</v>
       </c>
       <c r="E52" s="1">
-        <v>20.32</v>
+        <v>22.95</v>
       </c>
       <c r="I52" s="0">
         <f>LN(B52)</f>
-        <v>4.15582842263044</v>
+        <v>4.27754073642672</v>
       </c>
       <c r="J52" s="0">
         <f>LN(A52)</f>
-        <v>5.25749537202778</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B53" s="0">
         <f>3.14*E53</f>
-        <v>62.2662</v>
+        <v>65.6888</v>
       </c>
       <c r="E53" s="1">
-        <v>19.83</v>
+        <v>20.92</v>
       </c>
       <c r="I53" s="0">
         <f>LN(B53)</f>
-        <v>4.13141874245187</v>
+        <v>4.18492843911688</v>
       </c>
       <c r="J53" s="0">
         <f>LN(A53)</f>
-        <v>5.19849703126583</v>
+        <v>5.25749537202778</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B54" s="0">
         <f>3.14*E54</f>
-        <v>59.3774</v>
+        <v>60.4764</v>
       </c>
       <c r="E54" s="1">
-        <v>18.91</v>
+        <v>19.26</v>
       </c>
       <c r="I54" s="0">
         <f>LN(B54)</f>
-        <v>4.08391368259053</v>
+        <v>4.10225320629014</v>
       </c>
       <c r="J54" s="0">
         <f>LN(A54)</f>
-        <v>5.2257466737132</v>
+        <v>5.25227342804663</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2">
-        <v>184.5</v>
+        <v>192</v>
       </c>
       <c r="B55" s="0">
         <f>3.14*E55</f>
-        <v>62.3918</v>
+        <v>63.8048</v>
       </c>
       <c r="E55" s="1">
-        <v>19.87</v>
+        <v>20.32</v>
       </c>
       <c r="I55" s="0">
         <f>LN(B55)</f>
-        <v>4.13343385648389</v>
+        <v>4.15582842263044</v>
       </c>
       <c r="J55" s="0">
         <f>LN(A55)</f>
-        <v>5.21764946348058</v>
+        <v>5.25749537202778</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B56" s="0">
         <f>3.14*E56</f>
-        <v>61.9208</v>
+        <v>62.2662</v>
       </c>
       <c r="E56" s="1">
-        <v>19.72</v>
+        <v>19.83</v>
       </c>
       <c r="I56" s="0">
         <f>LN(B56)</f>
-        <v>4.12585614909465</v>
+        <v>4.13141874245187</v>
       </c>
       <c r="J56" s="0">
         <f>LN(A56)</f>
-        <v>5.24702407216049</v>
+        <v>5.19849703126583</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="0">
         <f>3.14*E57</f>
-        <v>57.8388</v>
+        <v>59.3774</v>
       </c>
       <c r="E57" s="1">
-        <v>18.42</v>
+        <v>18.91</v>
       </c>
       <c r="I57" s="0">
         <f>LN(B57)</f>
-        <v>4.05765983074732</v>
+        <v>4.08391368259053</v>
       </c>
       <c r="J57" s="0">
         <f>LN(A57)</f>
-        <v>5.23110861685459</v>
+        <v>5.2257466737132</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2">
-        <v>186</v>
+        <v>184.5</v>
       </c>
       <c r="B58" s="0">
         <f>3.14*E58</f>
-        <v>59.1262</v>
+        <v>62.3918</v>
       </c>
       <c r="E58" s="1">
-        <v>18.83</v>
+        <v>19.87</v>
       </c>
       <c r="I58" s="0">
         <f>LN(B58)</f>
-        <v>4.07967414258922</v>
+        <v>4.13343385648389</v>
       </c>
       <c r="J58" s="0">
         <f>LN(A58)</f>
-        <v>5.2257466737132</v>
+        <v>5.21764946348058</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B59" s="0">
         <f>3.14*E59</f>
-        <v>63.3024</v>
+        <v>61.9208</v>
       </c>
       <c r="E59" s="1">
-        <v>20.16</v>
+        <v>19.72</v>
       </c>
       <c r="I59" s="0">
         <f>LN(B59)</f>
-        <v>4.14792324312333</v>
+        <v>4.12585614909465</v>
       </c>
       <c r="J59" s="0">
         <f>LN(A59)</f>
-        <v>5.24174701505964</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="0">
         <f>3.14*E60</f>
-        <v>64.0246</v>
+        <v>57.8388</v>
       </c>
       <c r="E60" s="1">
-        <v>20.39</v>
+        <v>18.42</v>
       </c>
       <c r="I60" s="0">
         <f>LN(B60)</f>
-        <v>4.15926738450653</v>
+        <v>4.05765983074732</v>
       </c>
       <c r="J60" s="0">
         <f>LN(A60)</f>
-        <v>5.23644196282995</v>
+        <v>5.23110861685459</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2">
-        <v>195.5</v>
+        <v>186</v>
       </c>
       <c r="B61" s="0">
         <f>3.14*E61</f>
-        <v>61.2928</v>
+        <v>59.1262</v>
       </c>
       <c r="E61" s="1">
-        <v>19.52</v>
+        <v>18.83</v>
       </c>
       <c r="I61" s="0">
         <f>LN(B61)</f>
-        <v>4.11566238090511</v>
+        <v>4.07967414258922</v>
       </c>
       <c r="J61" s="0">
         <f>LN(A61)</f>
-        <v>5.27556037942542</v>
+        <v>5.2257466737132</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B62" s="0">
         <f>3.14*E62</f>
-        <v>66.254</v>
+        <v>63.3024</v>
       </c>
       <c r="E62" s="1">
-        <v>21.1</v>
+        <v>20.16</v>
       </c>
       <c r="I62" s="0">
         <f>LN(B62)</f>
-        <v>4.19349584040218</v>
+        <v>4.14792324312333</v>
       </c>
       <c r="J62" s="0">
         <f>LN(A62)</f>
-        <v>5.27299955856375</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B63" s="0">
         <f>3.14*E63</f>
-        <v>69.4568</v>
+        <v>64.0246</v>
       </c>
       <c r="E63" s="1">
-        <v>22.12</v>
+        <v>20.39</v>
       </c>
       <c r="I63" s="0">
         <f>LN(B63)</f>
-        <v>4.2407049765743</v>
+        <v>4.15926738450653</v>
       </c>
       <c r="J63" s="0">
         <f>LN(A63)</f>
-        <v>5.27299955856375</v>
+        <v>5.23644196282995</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2">
-        <v>190.5</v>
+        <v>195.5</v>
       </c>
       <c r="B64" s="0">
         <f>3.14*E64</f>
-        <v>57.5248</v>
+        <v>61.2928</v>
       </c>
       <c r="E64" s="1">
-        <v>18.32</v>
+        <v>19.52</v>
       </c>
       <c r="I64" s="0">
         <f>LN(B64)</f>
-        <v>4.05221615916615</v>
+        <v>4.11566238090511</v>
       </c>
       <c r="J64" s="0">
         <f>LN(A64)</f>
-        <v>5.24965219456676</v>
+        <v>5.27556037942542</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B65" s="0">
         <f>3.14*E65</f>
-        <v>61.4812</v>
+        <v>66.254</v>
       </c>
       <c r="E65" s="1">
-        <v>19.58</v>
+        <v>21.1</v>
       </c>
       <c r="I65" s="0">
         <f>LN(B65)</f>
-        <v>4.11873143702253</v>
+        <v>4.19349584040218</v>
       </c>
       <c r="J65" s="0">
         <f>LN(A65)</f>
-        <v>5.23644196282995</v>
+        <v>5.27299955856375</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B66" s="0">
         <f>3.14*E66</f>
-        <v>59.3774</v>
+        <v>69.4568</v>
       </c>
       <c r="E66" s="1">
-        <v>18.91</v>
+        <v>22.12</v>
       </c>
       <c r="I66" s="0">
         <f>LN(B66)</f>
-        <v>4.08391368259053</v>
+        <v>4.2407049765743</v>
       </c>
       <c r="J66" s="0">
         <f>LN(A66)</f>
-        <v>5.24702407216049</v>
+        <v>5.27299955856375</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2">
-        <v>189</v>
+        <v>190.5</v>
       </c>
       <c r="B67" s="0">
         <f>3.14*E67</f>
-        <v>61.2928</v>
+        <v>57.5248</v>
       </c>
       <c r="E67" s="1">
-        <v>19.52</v>
+        <v>18.32</v>
       </c>
       <c r="I67" s="0">
         <f>LN(B67)</f>
-        <v>4.11566238090511</v>
+        <v>4.05221615916615</v>
       </c>
       <c r="J67" s="0">
         <f>LN(A67)</f>
-        <v>5.24174701505964</v>
+        <v>5.24965219456676</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2">
-        <v>188.5</v>
+        <v>188</v>
       </c>
       <c r="B68" s="0">
         <f>3.14*E68</f>
-        <v>64.9038</v>
+        <v>61.4812</v>
       </c>
       <c r="E68" s="1">
-        <v>20.67</v>
+        <v>19.58</v>
       </c>
       <c r="I68" s="0">
         <f>LN(B68)</f>
-        <v>4.17290617361384</v>
+        <v>4.11873143702253</v>
       </c>
       <c r="J68" s="0">
         <f>LN(A68)</f>
-        <v>5.23909800688807</v>
+        <v>5.23644196282995</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B69" s="0">
         <f>3.14*E69</f>
-        <v>64.056</v>
+        <v>59.3774</v>
       </c>
       <c r="E69" s="1">
-        <v>20.4</v>
+        <v>18.91</v>
       </c>
       <c r="I69" s="0">
         <f>LN(B69)</f>
-        <v>4.15975770077033</v>
+        <v>4.08391368259053</v>
       </c>
       <c r="J69" s="0">
         <f>LN(A69)</f>
-        <v>5.27299955856375</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" s="0">
         <f>3.14*E70</f>
-        <v>58.5296</v>
+        <v>61.2928</v>
       </c>
       <c r="E70" s="1">
-        <v>18.64</v>
+        <v>19.52</v>
       </c>
       <c r="I70" s="0">
         <f>LN(B70)</f>
-        <v>4.06953260917761</v>
+        <v>4.11566238090511</v>
       </c>
       <c r="J70" s="0">
         <f>LN(A70)</f>
-        <v>5.25227342804663</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2">
-        <v>188</v>
+        <v>188.5</v>
       </c>
       <c r="B71" s="0">
         <f>3.14*E71</f>
-        <v>59.189</v>
+        <v>64.9038</v>
       </c>
       <c r="E71" s="1">
-        <v>18.85</v>
+        <v>20.67</v>
       </c>
       <c r="I71" s="0">
         <f>LN(B71)</f>
-        <v>4.08073571381418</v>
+        <v>4.17290617361384</v>
       </c>
       <c r="J71" s="0">
         <f>LN(A71)</f>
-        <v>5.23644196282995</v>
+        <v>5.23909800688807</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="0">
         <f>3.14*E72</f>
-        <v>57.776</v>
+        <v>64.056</v>
       </c>
       <c r="E72" s="1">
-        <v>18.4</v>
+        <v>20.4</v>
       </c>
       <c r="I72" s="0">
         <f>LN(B72)</f>
-        <v>4.0565734645351</v>
+        <v>4.15975770077033</v>
       </c>
       <c r="J72" s="0">
         <f>LN(A72)</f>
-        <v>5.27811465923052</v>
+        <v>5.27299955856375</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B73" s="0">
         <f>3.14*E73</f>
-        <v>59.6914</v>
+        <v>58.5296</v>
       </c>
       <c r="E73" s="1">
-        <v>19.01</v>
+        <v>18.64</v>
       </c>
       <c r="I73" s="0">
         <f>LN(B73)</f>
-        <v>4.0891879564205</v>
+        <v>4.06953260917761</v>
       </c>
       <c r="J73" s="0">
         <f>LN(A73)</f>
-        <v>5.24174701505964</v>
+        <v>5.25227342804663</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B74" s="0">
         <f>3.14*E74</f>
-        <v>63.9618</v>
+        <v>59.189</v>
       </c>
       <c r="E74" s="1">
-        <v>20.37</v>
+        <v>18.85</v>
       </c>
       <c r="I74" s="0">
         <f>LN(B74)</f>
-        <v>4.15828603015888</v>
+        <v>4.08073571381418</v>
       </c>
       <c r="J74" s="0">
         <f>LN(A74)</f>
-        <v>5.21493575760899</v>
+        <v>5.23644196282995</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B75" s="0">
         <f>3.14*E75</f>
-        <v>61.6696</v>
+        <v>57.776</v>
       </c>
       <c r="E75" s="1">
-        <v>19.64</v>
+        <v>18.4</v>
       </c>
       <c r="I75" s="0">
         <f>LN(B75)</f>
-        <v>4.12179110284648</v>
+        <v>4.0565734645351</v>
       </c>
       <c r="J75" s="0">
         <f>LN(A75)</f>
-        <v>5.24174701505964</v>
+        <v>5.27811465923052</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B76" s="0">
         <f>3.14*E76</f>
-        <v>55.9548</v>
+        <v>59.6914</v>
       </c>
       <c r="E76" s="1">
-        <v>17.82</v>
+        <v>19.01</v>
       </c>
       <c r="I76" s="0">
         <f>LN(B76)</f>
-        <v>4.02454422196283</v>
+        <v>4.0891879564205</v>
       </c>
       <c r="J76" s="0">
         <f>LN(A76)</f>
-        <v>5.25749537202778</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B77" s="0">
         <f>3.14*E77</f>
-        <v>64.1816</v>
+        <v>63.9618</v>
       </c>
       <c r="E77" s="1">
-        <v>20.44</v>
+        <v>20.37</v>
       </c>
       <c r="I77" s="0">
         <f>LN(B77)</f>
-        <v>4.16171656525567</v>
+        <v>4.15828603015888</v>
       </c>
       <c r="J77" s="0">
         <f>LN(A77)</f>
-        <v>5.25227342804663</v>
+        <v>5.21493575760899</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B78" s="0">
         <f>3.14*E78</f>
-        <v>60.8846</v>
+        <v>61.6696</v>
       </c>
       <c r="E78" s="1">
-        <v>19.39</v>
+        <v>19.64</v>
       </c>
       <c r="I78" s="0">
         <f>LN(B78)</f>
-        <v>4.10898026917472</v>
+        <v>4.12179110284648</v>
       </c>
       <c r="J78" s="0">
         <f>LN(A78)</f>
-        <v>5.26785815906333</v>
+        <v>5.24174701505964</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B79" s="0">
         <f>3.14*E79</f>
-        <v>61.2614</v>
+        <v>55.9548</v>
       </c>
       <c r="E79" s="1">
-        <v>19.51</v>
+        <v>17.82</v>
       </c>
       <c r="I79" s="0">
         <f>LN(B79)</f>
-        <v>4.11514995455518</v>
+        <v>4.02454422196283</v>
       </c>
       <c r="J79" s="0">
         <f>LN(A79)</f>
-        <v>5.25227342804663</v>
+        <v>5.25749537202778</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B80" s="0">
         <f>3.14*E80</f>
-        <v>63.3024</v>
+        <v>64.1816</v>
       </c>
       <c r="E80" s="1">
-        <v>20.16</v>
+        <v>20.44</v>
       </c>
       <c r="I80" s="0">
         <f>LN(B80)</f>
-        <v>4.14792324312333</v>
+        <v>4.16171656525567</v>
       </c>
       <c r="J80" s="0">
         <f>LN(A80)</f>
-        <v>5.2257466737132</v>
+        <v>5.25227342804663</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B81" s="0">
         <f>3.14*E81</f>
-        <v>66.4424</v>
+        <v>60.8846</v>
       </c>
       <c r="E81" s="1">
-        <v>21.16</v>
+        <v>19.39</v>
       </c>
       <c r="I81" s="0">
         <f>LN(B81)</f>
-        <v>4.19633540691026</v>
+        <v>4.10898026917472</v>
       </c>
       <c r="J81" s="0">
         <f>LN(A81)</f>
-        <v>5.20948615284142</v>
+        <v>5.26785815906333</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B82" s="0">
         <f>3.14*E82</f>
-        <v>62.5174</v>
+        <v>61.2614</v>
       </c>
       <c r="E82" s="1">
-        <v>19.91</v>
+        <v>19.51</v>
       </c>
       <c r="I82" s="0">
         <f>LN(B82)</f>
-        <v>4.13544491799627</v>
+        <v>4.11514995455518</v>
       </c>
       <c r="J82" s="0">
         <f>LN(A82)</f>
-        <v>5.21493575760899</v>
+        <v>5.25227342804663</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="0">
         <f>3.14*E83</f>
-        <v>60.5078</v>
+        <v>63.3024</v>
       </c>
       <c r="E83" s="1">
-        <v>19.27</v>
+        <v>20.16</v>
       </c>
       <c r="I83" s="0">
         <f>LN(B83)</f>
-        <v>4.10277228234644</v>
+        <v>4.14792324312333</v>
       </c>
       <c r="J83" s="0">
         <f>LN(A83)</f>
-        <v>5.22035582507833</v>
+        <v>5.2257466737132</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2">
-        <v>190.5</v>
+        <v>183</v>
       </c>
       <c r="B84" s="0">
         <f>3.14*E84</f>
-        <v>62.8628</v>
+        <v>66.4424</v>
       </c>
       <c r="E84" s="1">
-        <v>20.02</v>
+        <v>21.16</v>
       </c>
       <c r="I84" s="0">
         <f>LN(B84)</f>
-        <v>4.14095457380724</v>
+        <v>4.19633540691026</v>
       </c>
       <c r="J84" s="0">
         <f>LN(A84)</f>
-        <v>5.24965219456676</v>
+        <v>5.20948615284142</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="0">
         <f>3.14*E85</f>
-        <v>58.9064</v>
+        <v>62.5174</v>
       </c>
       <c r="E85" s="1">
-        <v>18.76</v>
+        <v>19.91</v>
       </c>
       <c r="I85" s="0">
         <f>LN(B85)</f>
-        <v>4.07594974349824</v>
+        <v>4.13544491799627</v>
       </c>
       <c r="J85" s="0">
         <f>LN(A85)</f>
-        <v>5.20948615284142</v>
+        <v>5.21493575760899</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2">
-        <v>185.5</v>
+        <v>185</v>
       </c>
       <c r="B86" s="0">
         <f>3.14*E86</f>
-        <v>61.1672</v>
+        <v>60.5078</v>
       </c>
       <c r="E86" s="1">
-        <v>19.48</v>
+        <v>19.27</v>
       </c>
       <c r="I86" s="0">
         <f>LN(B86)</f>
-        <v>4.11361109813455</v>
+        <v>4.10277228234644</v>
       </c>
       <c r="J86" s="0">
         <f>LN(A86)</f>
-        <v>5.22305488204749</v>
+        <v>5.22035582507833</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2">
-        <v>182</v>
+        <v>190.5</v>
       </c>
       <c r="B87" s="0">
         <f>3.14*E87</f>
-        <v>59.503</v>
+        <v>62.8628</v>
       </c>
       <c r="E87" s="1">
-        <v>18.95</v>
+        <v>20.02</v>
       </c>
       <c r="I87" s="0">
         <f>LN(B87)</f>
-        <v>4.0860267314486</v>
+        <v>4.14095457380724</v>
       </c>
       <c r="J87" s="0">
         <f>LN(A87)</f>
-        <v>5.2040066870768</v>
+        <v>5.24965219456676</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" s="0">
         <f>3.14*E88</f>
-        <v>57.619</v>
+        <v>58.9064</v>
       </c>
       <c r="E88" s="1">
-        <v>18.35</v>
+        <v>18.76</v>
       </c>
       <c r="I88" s="0">
         <f>LN(B88)</f>
-        <v>4.05385237442074</v>
+        <v>4.07594974349824</v>
       </c>
       <c r="J88" s="0">
         <f>LN(A88)</f>
-        <v>5.21493575760899</v>
+        <v>5.20948615284142</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2">
-        <v>183</v>
+        <v>185.5</v>
       </c>
       <c r="B89" s="0">
         <f>3.14*E89</f>
-        <v>55.421</v>
+        <v>61.1672</v>
       </c>
       <c r="E89" s="1">
-        <v>17.65</v>
+        <v>19.48</v>
       </c>
       <c r="I89" s="0">
         <f>LN(B89)</f>
-        <v>4.01495858329947</v>
+        <v>4.11361109813455</v>
       </c>
       <c r="J89" s="0">
         <f>LN(A89)</f>
-        <v>5.20948615284142</v>
+        <v>5.22305488204749</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2">
-        <v>184.5</v>
+        <v>182</v>
       </c>
       <c r="B90" s="0">
         <f>3.14*E90</f>
-        <v>61.0416</v>
+        <v>59.503</v>
       </c>
       <c r="E90" s="1">
-        <v>19.44</v>
+        <v>18.95</v>
       </c>
       <c r="I90" s="0">
         <f>LN(B90)</f>
-        <v>4.11155559895245</v>
+        <v>4.0860267314486</v>
       </c>
       <c r="J90" s="0">
         <f>LN(A90)</f>
-        <v>5.21764946348058</v>
+        <v>5.2040066870768</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B91" s="0">
         <f>3.14*E91</f>
-        <v>63.0512</v>
+        <v>57.619</v>
       </c>
       <c r="E91" s="1">
-        <v>20.08</v>
+        <v>18.35</v>
       </c>
       <c r="I91" s="0">
         <f>LN(B91)</f>
-        <v>4.14394709474369</v>
+        <v>4.05385237442074</v>
       </c>
       <c r="J91" s="0">
         <f>LN(A91)</f>
-        <v>5.18738580584075</v>
+        <v>5.21493575760899</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B92" s="0">
         <f>3.14*E92</f>
-        <v>66.3482</v>
+        <v>55.421</v>
       </c>
       <c r="E92" s="1">
-        <v>21.13</v>
+        <v>17.65</v>
       </c>
       <c r="I92" s="0">
         <f>LN(B92)</f>
-        <v>4.19491663154813</v>
+        <v>4.01495858329947</v>
       </c>
       <c r="J92" s="0">
         <f>LN(A92)</f>
-        <v>5.19849703126583</v>
+        <v>5.20948615284142</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2">
-        <v>186</v>
+        <v>184.5</v>
       </c>
       <c r="B93" s="0">
         <f>3.14*E93</f>
-        <v>58.2156</v>
+        <v>61.0416</v>
       </c>
       <c r="E93" s="1">
-        <v>18.54</v>
+        <v>19.44</v>
       </c>
       <c r="I93" s="0">
         <f>LN(B93)</f>
-        <v>4.06415336005787</v>
+        <v>4.11155559895245</v>
       </c>
       <c r="J93" s="0">
         <f>LN(A93)</f>
-        <v>5.2257466737132</v>
+        <v>5.21764946348058</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B94" s="0">
         <f>3.14*E94</f>
-        <v>57.8388</v>
+        <v>63.0512</v>
       </c>
       <c r="E94" s="1">
-        <v>18.42</v>
+        <v>20.08</v>
       </c>
       <c r="I94" s="0">
         <f>LN(B94)</f>
-        <v>4.05765983074732</v>
+        <v>4.14394709474369</v>
       </c>
       <c r="J94" s="0">
         <f>LN(A94)</f>
-        <v>5.17614973257383</v>
+        <v>5.18738580584075</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B95" s="0">
         <f>3.14*E95</f>
-        <v>61.387</v>
+        <v>66.3482</v>
       </c>
       <c r="E95" s="1">
-        <v>19.55</v>
+        <v>21.13</v>
       </c>
       <c r="I95" s="0">
         <f>LN(B95)</f>
-        <v>4.11719808635154</v>
+        <v>4.19491663154813</v>
       </c>
       <c r="J95" s="0">
         <f>LN(A95)</f>
-        <v>5.24702407216049</v>
+        <v>5.19849703126583</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B96" s="0">
         <f>3.14*E96</f>
-        <v>63.3338</v>
+        <v>58.2156</v>
       </c>
       <c r="E96" s="1">
-        <v>20.17</v>
+        <v>18.54</v>
       </c>
       <c r="I96" s="0">
         <f>LN(B96)</f>
-        <v>4.14841915188628</v>
+        <v>4.06415336005787</v>
       </c>
       <c r="J96" s="0">
         <f>LN(A96)</f>
-        <v>5.2040066870768</v>
+        <v>5.2257466737132</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B97" s="0">
         <f>3.14*E97</f>
-        <v>56.3944</v>
+        <v>57.8388</v>
       </c>
       <c r="E97" s="1">
-        <v>17.96</v>
+        <v>18.42</v>
       </c>
       <c r="I97" s="0">
         <f>LN(B97)</f>
-        <v>4.03236986279422</v>
+        <v>4.05765983074732</v>
       </c>
       <c r="J97" s="0">
         <f>LN(A97)</f>
-        <v>5.19849703126583</v>
+        <v>5.17614973257383</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B98" s="0">
         <f>3.14*E98</f>
-        <v>63.7106</v>
+        <v>61.387</v>
       </c>
       <c r="E98" s="1">
-        <v>20.29</v>
+        <v>19.55</v>
       </c>
       <c r="I98" s="0">
         <f>LN(B98)</f>
-        <v>4.15435095375789</v>
+        <v>4.11719808635154</v>
       </c>
       <c r="J98" s="0">
         <f>LN(A98)</f>
-        <v>5.17614973257383</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B99" s="0">
         <f>3.14*E99</f>
-        <v>56.6142</v>
+        <v>63.3338</v>
       </c>
       <c r="E99" s="1">
-        <v>18.03</v>
+        <v>20.17</v>
       </c>
       <c r="I99" s="0">
         <f>LN(B99)</f>
-        <v>4.03625983713539</v>
+        <v>4.14841915188628</v>
       </c>
       <c r="J99" s="0">
         <f>LN(A99)</f>
-        <v>5.19295685089021</v>
+        <v>5.2040066870768</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B100" s="0">
         <f>3.14*E100</f>
-        <v>59.974</v>
+        <v>56.3944</v>
       </c>
       <c r="E100" s="1">
-        <v>19.1</v>
+        <v>17.96</v>
       </c>
       <c r="I100" s="0">
         <f>LN(B100)</f>
-        <v>4.09391113497275</v>
+        <v>4.03236986279422</v>
       </c>
       <c r="J100" s="0">
         <f>LN(A100)</f>
-        <v>5.20948615284142</v>
+        <v>5.19849703126583</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B101" s="0">
         <f>3.14*E101</f>
-        <v>57.0852</v>
+        <v>63.7106</v>
       </c>
       <c r="E101" s="1">
-        <v>18.18</v>
+        <v>20.29</v>
       </c>
       <c r="I101" s="0">
         <f>LN(B101)</f>
-        <v>4.04454488866949</v>
+        <v>4.15435095375789</v>
       </c>
       <c r="J101" s="0">
         <f>LN(A101)</f>
-        <v>5.18738580584075</v>
+        <v>5.17614973257383</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B102" s="0">
         <f>3.14*E102</f>
-        <v>55.5466</v>
+        <v>56.6142</v>
       </c>
       <c r="E102" s="1">
-        <v>17.69</v>
+        <v>18.03</v>
       </c>
       <c r="I102" s="0">
         <f>LN(B102)</f>
-        <v>4.01722230809186</v>
+        <v>4.03625983713539</v>
       </c>
       <c r="J102" s="0">
         <f>LN(A102)</f>
-        <v>5.15905529921453</v>
+        <v>5.19295685089021</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B103" s="0">
         <f>3.14*E103</f>
-        <v>56.3316</v>
+        <v>59.974</v>
       </c>
       <c r="E103" s="1">
-        <v>17.94</v>
+        <v>19.1</v>
       </c>
       <c r="I103" s="0">
         <f>LN(B103)</f>
-        <v>4.03125565655081</v>
+        <v>4.09391113497275</v>
       </c>
       <c r="J103" s="0">
         <f>LN(A103)</f>
-        <v>5.12396397940326</v>
+        <v>5.20948615284142</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B104" s="0">
         <f>3.14*E104</f>
-        <v>62.1092</v>
+        <v>57.0852</v>
       </c>
       <c r="E104" s="1">
-        <v>19.78</v>
+        <v>18.18</v>
       </c>
       <c r="I104" s="0">
         <f>LN(B104)</f>
-        <v>4.12889412611473</v>
+        <v>4.04454488866949</v>
       </c>
       <c r="J104" s="0">
         <f>LN(A104)</f>
-        <v>5.11799381241676</v>
+        <v>5.18738580584075</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B105" s="0">
         <f>3.14*E105</f>
-        <v>56.4886</v>
+        <v>55.5466</v>
       </c>
       <c r="E105" s="1">
-        <v>17.99</v>
+        <v>17.69</v>
       </c>
       <c r="I105" s="0">
         <f>LN(B105)</f>
-        <v>4.0340388478826</v>
+        <v>4.01722230809186</v>
       </c>
       <c r="J105" s="0">
         <f>LN(A105)</f>
-        <v>5.18738580584075</v>
+        <v>5.15905529921453</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B106" s="0">
         <f>3.14*E106</f>
-        <v>60.5706</v>
+        <v>56.3316</v>
       </c>
       <c r="E106" s="1">
-        <v>19.29</v>
+        <v>17.94</v>
       </c>
       <c r="I106" s="0">
         <f>LN(B106)</f>
-        <v>4.1038096268378</v>
+        <v>4.03125565655081</v>
       </c>
       <c r="J106" s="0">
         <f>LN(A106)</f>
-        <v>5.08759633523238</v>
+        <v>5.12396397940326</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2">
-        <v>168.5</v>
+        <v>167</v>
       </c>
       <c r="B107" s="0">
         <f>3.14*E107</f>
-        <v>56.9282</v>
+        <v>62.1092</v>
       </c>
       <c r="E107" s="1">
-        <v>18.13</v>
+        <v>19.78</v>
       </c>
       <c r="I107" s="0">
         <f>LN(B107)</f>
-        <v>4.04179082468692</v>
+        <v>4.12889412611473</v>
       </c>
       <c r="J107" s="0">
         <f>LN(A107)</f>
-        <v>5.12693574979242</v>
+        <v>5.11799381241676</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B108" s="0">
         <f>3.14*E108</f>
-        <v>53.5998</v>
+        <v>56.4886</v>
       </c>
       <c r="E108" s="1">
-        <v>17.07</v>
+        <v>17.99</v>
       </c>
       <c r="I108" s="0">
         <f>LN(B108)</f>
-        <v>3.98154533672651</v>
+        <v>4.0340388478826</v>
       </c>
       <c r="J108" s="0">
         <f>LN(A108)</f>
-        <v>5.09375020080676</v>
+        <v>5.18738580584075</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="0">
         <f>3.14*E109</f>
-        <v>56.52</v>
+        <v>60.5706</v>
       </c>
       <c r="E109" s="1">
-        <v>18</v>
+        <v>19.29</v>
       </c>
       <c r="I109" s="0">
         <f>LN(B109)</f>
-        <v>4.03459455781633</v>
+        <v>4.1038096268378</v>
       </c>
       <c r="J109" s="0">
         <f>LN(A109)</f>
-        <v>5.09375020080676</v>
+        <v>5.08759633523238</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2">
-        <v>192</v>
+        <v>168.5</v>
       </c>
       <c r="B110" s="0">
         <f>3.14*E110</f>
-        <v>59.2832</v>
+        <v>56.9282</v>
       </c>
       <c r="E110" s="1">
-        <v>18.88</v>
+        <v>18.13</v>
       </c>
       <c r="I110" s="0">
         <f>LN(B110)</f>
-        <v>4.08232596063752</v>
+        <v>4.04179082468692</v>
       </c>
       <c r="J110" s="0">
         <f>LN(A110)</f>
-        <v>5.25749537202778</v>
+        <v>5.12693574979242</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B111" s="0">
         <f>3.14*E111</f>
-        <v>60.9474</v>
+        <v>53.5998</v>
       </c>
       <c r="E111" s="1">
-        <v>19.41</v>
+        <v>17.07</v>
       </c>
       <c r="I111" s="0">
         <f>LN(B111)</f>
-        <v>4.11001119710108</v>
+        <v>3.98154533672651</v>
       </c>
       <c r="J111" s="0">
         <f>LN(A111)</f>
-        <v>5.17048399503815</v>
+        <v>5.09375020080676</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B112" s="0">
         <f>3.14*E112</f>
-        <v>60.0054</v>
+        <v>56.52</v>
       </c>
       <c r="E112" s="1">
-        <v>19.11</v>
+        <v>18</v>
       </c>
       <c r="I112" s="0">
         <f>LN(B112)</f>
-        <v>4.09443455817234</v>
+        <v>4.03459455781633</v>
       </c>
       <c r="J112" s="0">
         <f>LN(A112)</f>
-        <v>5.22035582507833</v>
+        <v>5.09375020080676</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7524,14 +7503,14 @@
       </c>
       <c r="B113" s="0">
         <f>3.14*E113</f>
-        <v>65.2178</v>
+        <v>59.2832</v>
       </c>
       <c r="E113" s="1">
-        <v>20.77</v>
+        <v>18.88</v>
       </c>
       <c r="I113" s="0">
         <f>LN(B113)</f>
-        <v>4.17773243780818</v>
+        <v>4.08232596063752</v>
       </c>
       <c r="J113" s="0">
         <f>LN(A113)</f>
@@ -7540,121 +7519,181 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B114" s="0">
         <f>3.14*E114</f>
-        <v>60.131</v>
+        <v>60.9474</v>
       </c>
       <c r="E114" s="1">
-        <v>19.15</v>
+        <v>19.41</v>
       </c>
       <c r="I114" s="0">
         <f>LN(B114)</f>
-        <v>4.09652551554682</v>
+        <v>4.11001119710108</v>
       </c>
       <c r="J114" s="0">
         <f>LN(A114)</f>
-        <v>5.23110861685459</v>
+        <v>5.17048399503815</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B115" s="0">
         <f>3.14*E115</f>
-        <v>65.1236</v>
+        <v>60.0054</v>
       </c>
       <c r="E115" s="1">
-        <v>20.74</v>
+        <v>19.11</v>
       </c>
       <c r="I115" s="0">
         <f>LN(B115)</f>
-        <v>4.17628700272154</v>
+        <v>4.09443455817234</v>
       </c>
       <c r="J115" s="0">
         <f>LN(A115)</f>
-        <v>5.24702407216049</v>
+        <v>5.22035582507833</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B116" s="0">
         <f>3.14*E116</f>
-        <v>66.2226</v>
+        <v>65.2178</v>
       </c>
       <c r="E116" s="1">
-        <v>21.09</v>
+        <v>20.77</v>
       </c>
       <c r="I116" s="0">
         <f>LN(B116)</f>
-        <v>4.19302179441085</v>
+        <v>4.17773243780818</v>
       </c>
       <c r="J116" s="0">
         <f>LN(A116)</f>
-        <v>5.18738580584075</v>
+        <v>5.25749537202778</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B117" s="0">
         <f>3.14*E117</f>
-        <v>55.8292</v>
+        <v>60.131</v>
       </c>
       <c r="E117" s="1">
-        <v>17.78</v>
+        <v>19.15</v>
       </c>
       <c r="I117" s="0">
         <f>LN(B117)</f>
-        <v>4.02229703000592</v>
+        <v>4.09652551554682</v>
       </c>
       <c r="J117" s="0">
         <f>LN(A117)</f>
-        <v>5.12989871492307</v>
+        <v>5.23110861685459</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B118" s="0">
         <f>3.14*E118</f>
-        <v>59.2518</v>
+        <v>65.1236</v>
       </c>
       <c r="E118" s="1">
-        <v>18.87</v>
+        <v>20.74</v>
       </c>
       <c r="I118" s="0">
         <f>LN(B118)</f>
-        <v>4.08179615930062</v>
+        <v>4.17628700272154</v>
       </c>
       <c r="J118" s="0">
         <f>LN(A118)</f>
-        <v>5.18178355029209</v>
+        <v>5.24702407216049</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B119" s="0">
         <f>3.14*E119</f>
-        <v>60.6962</v>
+        <v>66.2226</v>
       </c>
       <c r="E119" s="1">
-        <v>19.33</v>
+        <v>21.09</v>
       </c>
       <c r="I119" s="0">
         <f>LN(B119)</f>
-        <v>4.1058810931404</v>
+        <v>4.19302179441085</v>
       </c>
       <c r="J119" s="0">
         <f>LN(A119)</f>
+        <v>5.18738580584075</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>169</v>
+      </c>
+      <c r="B120" s="0">
+        <f>3.14*E120</f>
+        <v>55.8292</v>
+      </c>
+      <c r="E120" s="1">
+        <v>17.78</v>
+      </c>
+      <c r="I120" s="0">
+        <f>LN(B120)</f>
+        <v>4.02229703000592</v>
+      </c>
+      <c r="J120" s="0">
+        <f>LN(A120)</f>
+        <v>5.12989871492307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>178</v>
+      </c>
+      <c r="B121" s="0">
+        <f>3.14*E121</f>
+        <v>59.2518</v>
+      </c>
+      <c r="E121" s="1">
+        <v>18.87</v>
+      </c>
+      <c r="I121" s="0">
+        <f>LN(B121)</f>
+        <v>4.08179615930062</v>
+      </c>
+      <c r="J121" s="0">
+        <f>LN(A121)</f>
+        <v>5.18178355029209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>190</v>
+      </c>
+      <c r="B122" s="0">
+        <f>3.14*E122</f>
+        <v>60.6962</v>
+      </c>
+      <c r="E122" s="1">
+        <v>19.33</v>
+      </c>
+      <c r="I122" s="0">
+        <f>LN(B122)</f>
+        <v>4.1058810931404</v>
+      </c>
+      <c r="J122" s="0">
+        <f>LN(A122)</f>
         <v>5.24702407216049</v>
       </c>
     </row>
